--- a/Income/WM_inc.xlsx
+++ b/Income/WM_inc.xlsx
@@ -1981,16 +1981,16 @@
         <v>0.2764</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>0.2809</v>
+        <v>0.3072</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>0.3064</v>
+        <v>0.3326</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>0.3334</v>
+        <v>0.3589</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>0.36</v>
+        <v>0.3856</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>0.3812</v>
@@ -3505,16 +3505,16 @@
         <v>0.2794</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>0.2854</v>
+        <v>0.2829</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>0.285</v>
+        <v>0.2825</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>0.2843</v>
+        <v>0.282</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>0.2857</v>
+        <v>0.2833</v>
       </c>
       <c r="H27" s="0" t="n">
         <v>0.2888</v>
